--- a/cl_data.xlsx
+++ b/cl_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Company</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Requsition ID</t>
+    <t>Requisition ID</t>
   </si>
   <si>
     <t>Contact</t>
@@ -31,6 +31,9 @@
     <t>Software Engineering Co-op Internship</t>
   </si>
   <si>
+    <t>68156</t>
+  </si>
+  <si>
     <t>default</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>DevOps Engineering Intern</t>
   </si>
   <si>
+    <t>441054</t>
+  </si>
+  <si>
     <t>CalcSimple</t>
   </si>
   <si>
@@ -59,6 +65,15 @@
   </si>
   <si>
     <t>Back-end Software Engineer</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Co-op Software Intern</t>
+  </si>
+  <si>
+    <t>Mintu</t>
   </si>
 </sst>
 </file>
@@ -98,15 +113,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -353,79 +371,87 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
-        <v>68156.0</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
-        <v>441054.0</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>123456.0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
